--- a/output/fit_clients/fit_round_406.xlsx
+++ b/output/fit_clients/fit_round_406.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2294872084.356032</v>
+        <v>2422827114.262466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08294915742091481</v>
+        <v>0.1007305029510294</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03503766568379198</v>
+        <v>0.03587752750821015</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1147436077.487668</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1725113192.454065</v>
+        <v>1852467291.641152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1473858335161833</v>
+        <v>0.170495920367984</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04150299023881996</v>
+        <v>0.04819433698675264</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>862556593.7302061</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3860258121.44677</v>
+        <v>3632821305.857821</v>
       </c>
       <c r="F4" t="n">
-        <v>0.121572954620364</v>
+        <v>0.1416704258700024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03117276849323004</v>
+        <v>0.02355575353680807</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>147</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1930129065.01284</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2627207626.861797</v>
+        <v>4125456991.520177</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09451586397964874</v>
+        <v>0.08299394716082396</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04734446190132443</v>
+        <v>0.04025104686920208</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>150</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1313603907.934264</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2819730388.698997</v>
+        <v>2754646468.576796</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1223308807164336</v>
+        <v>0.1231516147676597</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05598441214155724</v>
+        <v>0.04458679120516119</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1409865135.245695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2263021482.819009</v>
+        <v>2271261266.657414</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07923345157884377</v>
+        <v>0.06580552991120682</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04353162499907902</v>
+        <v>0.03586762599855897</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>127</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1131510777.31601</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3100259993.506862</v>
+        <v>3794465331.08322</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1553728672457935</v>
+        <v>0.1901579972644181</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03209884434099048</v>
+        <v>0.02985453057275631</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>130</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1550130064.528815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1785137252.862326</v>
+        <v>2209044209.402921</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1801239541006559</v>
+        <v>0.1957761086463664</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02474413013540953</v>
+        <v>0.03469428954035275</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>892568682.8621538</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5481795534.990089</v>
+        <v>3679189784.913319</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2065492413115581</v>
+        <v>0.1375904241622845</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03556116657127007</v>
+        <v>0.04052835135207165</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>171</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2740897904.125631</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2576076603.131045</v>
+        <v>3994889024.228268</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1319015883269664</v>
+        <v>0.1261736644429922</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04860705263047253</v>
+        <v>0.04970140147091314</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>168</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1288038214.969331</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2655901441.205262</v>
+        <v>2908141503.906978</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1477988185583139</v>
+        <v>0.1644436662783701</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04946183884765407</v>
+        <v>0.05082540415978185</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>137</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1327950707.121921</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4349781400.533598</v>
+        <v>4114558382.526269</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06597654050683122</v>
+        <v>0.0720284406365049</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02321336356722256</v>
+        <v>0.02670535893597359</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>136</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2174890737.442771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2920495874.740299</v>
+        <v>3450505967.309784</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1148303522417961</v>
+        <v>0.1432720814123241</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03916435371894208</v>
+        <v>0.02696353754116251</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1460247977.583203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1347795701.978373</v>
+        <v>1400457172.94265</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08761744494926987</v>
+        <v>0.08431706604278125</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04876682973014909</v>
+        <v>0.03356547790543876</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>673897901.9966042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2843228580.689828</v>
+        <v>2567263482.228771</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07265379291012128</v>
+        <v>0.08155452353544716</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04060609140647738</v>
+        <v>0.0436833537680589</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1421614290.510076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4503948641.480305</v>
+        <v>4572166117.209424</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1150933469893806</v>
+        <v>0.1309619344570505</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04851311468534827</v>
+        <v>0.04472706602720272</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2251974330.464218</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3541047684.348693</v>
+        <v>3656724849.103407</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1559244779707945</v>
+        <v>0.1787524591940959</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02182537916345078</v>
+        <v>0.03327523976261048</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>133</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1770523833.234439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1186786855.823196</v>
+        <v>1124002273.761204</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1768435458928987</v>
+        <v>0.1160922867244406</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02015828615721914</v>
+        <v>0.01783466301726905</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>593393502.6103734</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1957256095.298778</v>
+        <v>2412791121.55388</v>
       </c>
       <c r="F20" t="n">
-        <v>0.152382345086415</v>
+        <v>0.1558936174306832</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03082440426107791</v>
+        <v>0.02474823634347442</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>54</v>
-      </c>
-      <c r="J20" t="n">
-        <v>978628078.5703598</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2187883379.397711</v>
+        <v>2278604778.120645</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09666777241219038</v>
+        <v>0.08990555149789847</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04217556667316941</v>
+        <v>0.03176087653873405</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1093941707.711667</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2544647104.681436</v>
+        <v>3274493459.168386</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1424118017819699</v>
+        <v>0.1196846248873242</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04018436854756686</v>
+        <v>0.04660068173253201</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>112</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1272323641.154132</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1108924830.212166</v>
+        <v>1057133657.865062</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1574689660656758</v>
+        <v>0.1689345593311559</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0491831275946722</v>
+        <v>0.04673154699066076</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>554462466.9458637</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3866170008.888204</v>
+        <v>2928880461.010842</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1204669136926563</v>
+        <v>0.1440018348683608</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0338865959600447</v>
+        <v>0.02744069474385059</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>120</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1933084981.456169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>920225810.1029558</v>
+        <v>1336186375.134121</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09041801920898183</v>
+        <v>0.1197801528392817</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02508024067133769</v>
+        <v>0.01924253164176523</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>460112987.4073479</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1252560631.647573</v>
+        <v>1420113763.914435</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1211657599909169</v>
+        <v>0.09953486732951997</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02713427127590016</v>
+        <v>0.02710197837916543</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>626280349.708959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3150034127.905048</v>
+        <v>3757777645.904764</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1449399668362356</v>
+        <v>0.1244018427596784</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0208519797557743</v>
+        <v>0.02674607334275806</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1575017116.318601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3309562142.121163</v>
+        <v>2806150797.231452</v>
       </c>
       <c r="F28" t="n">
-        <v>0.14974676039625</v>
+        <v>0.1445225602293143</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03296748332134555</v>
+        <v>0.03197971634010769</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1654781109.175117</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5751176558.167544</v>
+        <v>5427389484.473505</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09199491518728534</v>
+        <v>0.1077357925184274</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03640375939511039</v>
+        <v>0.04168602929482175</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>179</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2875588174.662149</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1890550207.320856</v>
+        <v>1574038577.457534</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1058817645804798</v>
+        <v>0.1387667315231473</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03442012450867835</v>
+        <v>0.03174958965832512</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>945275128.7000079</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1412998034.960624</v>
+        <v>1501742579.114317</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09840811749104179</v>
+        <v>0.08040767335339929</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04700162054467703</v>
+        <v>0.03468086844485783</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>706498918.81376</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1442732201.378805</v>
+        <v>1860936755.852994</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1192858459668178</v>
+        <v>0.113294821434894</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02960370196891699</v>
+        <v>0.03412357366456475</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>721366157.1919851</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2649788206.868587</v>
+        <v>1890111858.801287</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1335529281664646</v>
+        <v>0.1391811096892003</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04476146714915136</v>
+        <v>0.05013701850429053</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>121</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1324894128.902465</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1291837927.875776</v>
+        <v>1440581889.813425</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1140753926074916</v>
+        <v>0.08432081692084724</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02367421191899391</v>
+        <v>0.02666935162554802</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>645918953.9283485</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1292886762.842955</v>
+        <v>1301516854.45649</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09305979441880494</v>
+        <v>0.07453780252147621</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03166594856096436</v>
+        <v>0.02828423003656874</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>646443335.7847246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3198990865.526109</v>
+        <v>3144581384.653728</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1474974036542659</v>
+        <v>0.1600728110779428</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02377697572579733</v>
+        <v>0.02545549128647531</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>102</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1599495398.748626</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2855506427.851196</v>
+        <v>1789231926.497097</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07999994148314653</v>
+        <v>0.08342887781162092</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04153182031271446</v>
+        <v>0.02815170523642148</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>109</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1427753358.907661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2171293526.035593</v>
+        <v>1700242221.435076</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08923649246616841</v>
+        <v>0.1105492398248887</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02948478372372837</v>
+        <v>0.03562033239361166</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1085646717.460725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2123598685.38791</v>
+        <v>1832909067.980139</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1433864856517965</v>
+        <v>0.1898243485672124</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0296513699347165</v>
+        <v>0.02117343986694877</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1061799318.515863</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1549156359.351225</v>
+        <v>1694222401.12609</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1136470251922765</v>
+        <v>0.1353252471129076</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04692023018184747</v>
+        <v>0.04935614996206974</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>774578133.5683994</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2842228961.710773</v>
+        <v>1861226324.815623</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1021857602290557</v>
+        <v>0.1440602529147315</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03159710507077741</v>
+        <v>0.04739243483848484</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>103</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1421114472.615425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3925410492.135464</v>
+        <v>3250229016.038127</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08468567193888095</v>
+        <v>0.0905362840933731</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03002157509106398</v>
+        <v>0.03554318105980096</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1962705270.245275</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2017124159.703075</v>
+        <v>2078905913.944722</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1711492146430128</v>
+        <v>0.1408799560654004</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02349817769870794</v>
+        <v>0.01753003345570599</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>142</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1008562177.099071</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1422523320.87381</v>
+        <v>1702109231.039742</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07732780647249392</v>
+        <v>0.0753309537185765</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0355464501641026</v>
+        <v>0.02560006622610826</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>711261651.5823926</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1828973299.857662</v>
+        <v>1659680361.365069</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1721833702563924</v>
+        <v>0.1755607543011674</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04956193524826282</v>
+        <v>0.05069295836581433</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>914486623.6111084</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5326645633.791373</v>
+        <v>4499576592.701843</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1523490198010376</v>
+        <v>0.1145139639431439</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05895187747170427</v>
+        <v>0.04262841791287685</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>144</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2663322862.39581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4823475871.10394</v>
+        <v>4420851315.71442</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1906428466470845</v>
+        <v>0.1960917932576503</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04725947952466961</v>
+        <v>0.05155407975652823</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>109</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2411737981.343331</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4145951169.474283</v>
+        <v>3074256772.513611</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09644349494605617</v>
+        <v>0.07208362526376662</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03455821404387626</v>
+        <v>0.03034829289795085</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2072975610.668962</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1467394719.800267</v>
+        <v>1492887394.636549</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159940398585836</v>
+        <v>0.1691714210528822</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0359160771607876</v>
+        <v>0.03393422122062519</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>733697396.9968678</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3367604055.618604</v>
+        <v>3163293783.483557</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1142506424335891</v>
+        <v>0.1180376446931977</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05263683556825915</v>
+        <v>0.05098792132716283</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>138</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1683802061.52355</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1370308947.683443</v>
+        <v>1255468042.43385</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1816333351038774</v>
+        <v>0.1946819117380028</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04636378506332785</v>
+        <v>0.03957846177504074</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>685154497.8061733</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5038417681.749849</v>
+        <v>4542011871.863333</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09970613381458414</v>
+        <v>0.08949744941948219</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06170080867297577</v>
+        <v>0.05373540469056278</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>167</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2519208836.254358</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3807349602.291154</v>
+        <v>3134369858.015899</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1339094608315595</v>
+        <v>0.1849787392064008</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03465233757600641</v>
+        <v>0.03126800019248632</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1903674777.867138</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3396553453.998324</v>
+        <v>3668311683.042052</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1273486261777424</v>
+        <v>0.1023038897250863</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05247835802286708</v>
+        <v>0.03888110724490414</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>132</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1698276743.679672</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4544852269.568254</v>
+        <v>3870665207.693233</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1426643983094026</v>
+        <v>0.2203984106704922</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02555443516198994</v>
+        <v>0.02413038945704301</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2272426133.7815</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1262341928.062566</v>
+        <v>1415374625.763304</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1610946425407288</v>
+        <v>0.1349644435344616</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05011525665847016</v>
+        <v>0.04078902056940108</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>631171041.5333272</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3087595303.027865</v>
+        <v>3841683024.829212</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1678951067900205</v>
+        <v>0.1785411538584218</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02631040517147108</v>
+        <v>0.02100246475073137</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>130</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1543797663.288776</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1878133980.029034</v>
+        <v>1730927773.742783</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1763113587044303</v>
+        <v>0.1786470724282521</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02821801367118239</v>
+        <v>0.02425917018861507</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>939066986.6606855</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5014923517.27094</v>
+        <v>4210260890.72</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08771386393011844</v>
+        <v>0.118605553215042</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03696783827193467</v>
+        <v>0.04310630671173741</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>110</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2507461685.647141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3106867846.20643</v>
+        <v>3592054407.618208</v>
       </c>
       <c r="F60" t="n">
-        <v>0.166416107327531</v>
+        <v>0.1840439134568087</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02218213815350853</v>
+        <v>0.0267919051680958</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>125</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1553434004.677214</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2328752645.851523</v>
+        <v>2598734917.008854</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1338332769166945</v>
+        <v>0.1620922269709385</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02112409635631228</v>
+        <v>0.02306023064219941</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>140</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1164376366.707015</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1619097966.676689</v>
+        <v>1965026273.383818</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1804608186491754</v>
+        <v>0.1600042014366469</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04183138983122593</v>
+        <v>0.03804891124796383</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>809548984.2513058</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3477332556.649203</v>
+        <v>4778409600.744594</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08143950975135282</v>
+        <v>0.1028245116407466</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04538089131782708</v>
+        <v>0.04299929648421257</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1738666364.035099</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4523253368.966894</v>
+        <v>5111166329.527685</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1736540718601834</v>
+        <v>0.154767916766662</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0282193129768083</v>
+        <v>0.02430563973436442</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>126</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2261626757.162175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3721114777.754238</v>
+        <v>4190415109.404154</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1653278367910589</v>
+        <v>0.1512667277238258</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02619549214319412</v>
+        <v>0.03098371477520948</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>146</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1860557424.121291</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5569042721.591491</v>
+        <v>4189032317.838826</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1153477080895601</v>
+        <v>0.1118949723040409</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04138268138547921</v>
+        <v>0.03612341877612363</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2784521418.496379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2398598071.43606</v>
+        <v>2954816109.807107</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08186126280661793</v>
+        <v>0.07115670864054904</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05099002637810368</v>
+        <v>0.04186670121766324</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>130</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1199299104.919904</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5703862021.037832</v>
+        <v>4156730724.868896</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1003577311340655</v>
+        <v>0.09696969115495387</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04232450426645713</v>
+        <v>0.04243624550723078</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2851931109.57164</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2304665190.095973</v>
+        <v>2352615770.323145</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1627369029959039</v>
+        <v>0.1586333685893923</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06005542883677346</v>
+        <v>0.05629011913265586</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1152332639.410153</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2921076523.563058</v>
+        <v>2894473780.197501</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07986372628076183</v>
+        <v>0.07954831090369074</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03771901828797464</v>
+        <v>0.03464045519158872</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>115</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1460538233.660403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5161583193.328814</v>
+        <v>5546608689.315365</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1237907696075222</v>
+        <v>0.1743490044578424</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02219999870438071</v>
+        <v>0.03207836239709486</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>148</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2580791714.431691</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1451093408.297825</v>
+        <v>2097945153.690689</v>
       </c>
       <c r="F72" t="n">
-        <v>0.100348343299399</v>
+        <v>0.09123447082690618</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04249423848306984</v>
+        <v>0.03432435301041011</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>725546739.0516561</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2661879475.907804</v>
+        <v>2292939900.154291</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0820294458100367</v>
+        <v>0.1048586560807388</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03203813954260855</v>
+        <v>0.03674728132235106</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>154</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1330939764.912815</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3305490369.164438</v>
+        <v>3991769191.393549</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1706932119129463</v>
+        <v>0.1595576480546449</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02275405174349612</v>
+        <v>0.03418310555776868</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>138</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1652745223.607243</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2339512095.250533</v>
+        <v>2318951317.554916</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1009223279212938</v>
+        <v>0.1266378662852626</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03477833436855283</v>
+        <v>0.0305571034482692</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1169755979.966663</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5132712351.324547</v>
+        <v>5041821927.673171</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1025787145735927</v>
+        <v>0.09719156489070636</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02948652949226207</v>
+        <v>0.02948419969437751</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2566356207.889792</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1670954367.684163</v>
+        <v>1543107462.550215</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1280690504939581</v>
+        <v>0.1298747314052331</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02700403446306068</v>
+        <v>0.02131268527066962</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>835477196.7828584</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2993458976.20439</v>
+        <v>2924840830.536871</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1030960232342613</v>
+        <v>0.09391892375821589</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03815723043086503</v>
+        <v>0.05127854949033921</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>141</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1496729525.881282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1610030756.95049</v>
+        <v>1862884669.832483</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1151345952596841</v>
+        <v>0.1605682773359444</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02661419218224476</v>
+        <v>0.02960046359489648</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>805015431.9413947</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4934230804.589397</v>
+        <v>4416079013.026921</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1023574527244236</v>
+        <v>0.1104893887814882</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0255504482497185</v>
+        <v>0.02660662092489115</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2467115448.264123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4294380492.009534</v>
+        <v>4794716006.788422</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1341861079632155</v>
+        <v>0.08518781788353533</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03231668785911442</v>
+        <v>0.02232371885526394</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>90</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2147190220.17156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3887430220.039991</v>
+        <v>5214224576.033558</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1427330845044149</v>
+        <v>0.2151787118614964</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01916947311671273</v>
+        <v>0.0227428909338446</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1943715156.077633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1765290777.042584</v>
+        <v>1883933203.660535</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1441394011797035</v>
+        <v>0.1449598575660023</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02979116393940263</v>
+        <v>0.04252037488781435</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>882645344.6632646</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2555104554.447395</v>
+        <v>2158645077.812881</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1075453888599427</v>
+        <v>0.102434882208398</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04490637177785529</v>
+        <v>0.03346490190628396</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1277552200.958388</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2587615620.89826</v>
+        <v>3115846476.072856</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1453703361175947</v>
+        <v>0.1433505645443822</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03671743741497872</v>
+        <v>0.05535658515984673</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>153</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1293807825.076487</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1933466243.117036</v>
+        <v>2369478984.467098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1322674451122771</v>
+        <v>0.1624705311021704</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0200258735329157</v>
+        <v>0.01832767077900082</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>966733139.9516653</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1396633202.916526</v>
+        <v>1230236214.54769</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1188883204964446</v>
+        <v>0.1413345208203681</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03040844698722119</v>
+        <v>0.04004824456877677</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>698316707.4718335</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3333752945.507157</v>
+        <v>3475862555.250045</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1075226470535814</v>
+        <v>0.1084121071006073</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03330817967218327</v>
+        <v>0.03286764675696558</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>160</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1666876536.188248</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2330032307.006719</v>
+        <v>2249722308.113627</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1154494895303085</v>
+        <v>0.1507767974715797</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03200249937817325</v>
+        <v>0.02884825344609968</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>137</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1165016240.752052</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1466003650.246265</v>
+        <v>1750484402.951323</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1214310596777283</v>
+        <v>0.1054709651592791</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03443980690384082</v>
+        <v>0.0431067544317871</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>733001797.6798178</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1999459230.428739</v>
+        <v>1772010379.921531</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1506947553205612</v>
+        <v>0.1616418377695026</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04526586619473725</v>
+        <v>0.03746405444507352</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>999729587.570408</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2997598671.037552</v>
+        <v>2049076694.126381</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0920979696851825</v>
+        <v>0.09073891104988216</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04272811109645081</v>
+        <v>0.03923210968926783</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>116</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1498799357.068565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3462703154.133591</v>
+        <v>4896806246.253721</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1136449691672931</v>
+        <v>0.1303065435439265</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05394480616825442</v>
+        <v>0.05332720525731894</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1731351612.452993</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2445691797.022719</v>
+        <v>1659150616.56163</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1087326156465364</v>
+        <v>0.1280570669220537</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0405259073373358</v>
+        <v>0.0366460810503406</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1222845954.85798</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1998529470.559057</v>
+        <v>2453588964.693099</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1230446443432434</v>
+        <v>0.1231152580701158</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0359045612730205</v>
+        <v>0.03923848915881271</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>99</v>
-      </c>
-      <c r="J95" t="n">
-        <v>999264807.8887706</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1803706589.055695</v>
+        <v>1523910649.983081</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1309288970120504</v>
+        <v>0.08778185401140377</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0359068143158369</v>
+        <v>0.03006470948255644</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>901853302.4766434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4464370117.100018</v>
+        <v>4998197655.048677</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1719545262673656</v>
+        <v>0.129592548220348</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02451059969658219</v>
+        <v>0.02437602798135212</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>131</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2232185152.299343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2898274083.169693</v>
+        <v>3684122538.391025</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0983947354498543</v>
+        <v>0.09681016226699993</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03032454402993928</v>
+        <v>0.03152570309829716</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1449137019.387469</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2924617184.829094</v>
+        <v>3089986044.075076</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1112387483123172</v>
+        <v>0.1053326631140829</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02705173772922257</v>
+        <v>0.0236336451922507</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>128</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1462308572.903401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3252384449.656721</v>
+        <v>4711022815.863025</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1675914463200892</v>
+        <v>0.1088380214331378</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02673233582757768</v>
+        <v>0.01867883994141627</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1626192235.840369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3071539047.690743</v>
+        <v>3229973486.828003</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2149835291825002</v>
+        <v>0.1561233650952276</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05750099320351622</v>
+        <v>0.05194160241606931</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>164</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1535769622.346357</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_406.xlsx
+++ b/output/fit_clients/fit_round_406.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2422827114.262466</v>
+        <v>2508937823.09853</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1007305029510294</v>
+        <v>0.09758959246000196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03587752750821015</v>
+        <v>0.04524507126089509</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1852467291.641152</v>
+        <v>2532221864.713642</v>
       </c>
       <c r="F3" t="n">
-        <v>0.170495920367984</v>
+        <v>0.1598858226637536</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04819433698675264</v>
+        <v>0.03479204305799259</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3632821305.857821</v>
+        <v>4186973179.29122</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1416704258700024</v>
+        <v>0.1605856119998181</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02355575353680807</v>
+        <v>0.02447770421819602</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4125456991.520177</v>
+        <v>4112225479.015882</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08299394716082396</v>
+        <v>0.0964058592669879</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04025104686920208</v>
+        <v>0.03252313241615195</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2754646468.576796</v>
+        <v>2416801873.679411</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1231516147676597</v>
+        <v>0.1016540373849779</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04458679120516119</v>
+        <v>0.05595989990487594</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2271261266.657414</v>
+        <v>2324038645.558528</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06580552991120682</v>
+        <v>0.09775036494265733</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03586762599855897</v>
+        <v>0.03443241586430515</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3794465331.08322</v>
+        <v>2534994883.983633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1901579972644181</v>
+        <v>0.1490393216186517</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02985453057275631</v>
+        <v>0.0281823621350031</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2209044209.402921</v>
+        <v>1637663096.260087</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1957761086463664</v>
+        <v>0.1637381567117875</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03469428954035275</v>
+        <v>0.02516938955291863</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3679189784.913319</v>
+        <v>5447966264.799534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1375904241622845</v>
+        <v>0.184388693232471</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04052835135207165</v>
+        <v>0.0372998821270613</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3994889024.228268</v>
+        <v>3184564757.900479</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1261736644429922</v>
+        <v>0.176113613664042</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04970140147091314</v>
+        <v>0.03408504757322898</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2908141503.906978</v>
+        <v>3107622662.659886</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1644436662783701</v>
+        <v>0.1492711408939077</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05082540415978185</v>
+        <v>0.04805239355214132</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4114558382.526269</v>
+        <v>5015895057.761235</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0720284406365049</v>
+        <v>0.0861309739633348</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02670535893597359</v>
+        <v>0.02869610354477573</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3450505967.309784</v>
+        <v>3232898924.795606</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1432720814123241</v>
+        <v>0.1808520480606547</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02696353754116251</v>
+        <v>0.02699742521850308</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1400457172.94265</v>
+        <v>1154633591.540027</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08431706604278125</v>
+        <v>0.07263651702000729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03356547790543876</v>
+        <v>0.03540806336249366</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2567263482.228771</v>
+        <v>1946634663.183473</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08155452353544716</v>
+        <v>0.1009266829126867</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0436833537680589</v>
+        <v>0.04635554315908737</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4572166117.209424</v>
+        <v>3678548637.853159</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1309619344570505</v>
+        <v>0.1689679770352295</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04472706602720272</v>
+        <v>0.04399391111293727</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3656724849.103407</v>
+        <v>3138960409.319034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1787524591940959</v>
+        <v>0.184558491144606</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03327523976261048</v>
+        <v>0.02448428171672814</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1124002273.761204</v>
+        <v>1055881439.724739</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1160922867244406</v>
+        <v>0.1678175304433902</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01783466301726905</v>
+        <v>0.0203041145488727</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2412791121.55388</v>
+        <v>1970861227.694463</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1558936174306832</v>
+        <v>0.1064645524340437</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02474823634347442</v>
+        <v>0.02154947838589944</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2278604778.120645</v>
+        <v>2233978406.677113</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08990555149789847</v>
+        <v>0.08520935203407473</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03176087653873405</v>
+        <v>0.03072604688632723</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3274493459.168386</v>
+        <v>3513494752.335397</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1196846248873242</v>
+        <v>0.09636888749701297</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04660068173253201</v>
+        <v>0.05691992903654915</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1057133657.865062</v>
+        <v>1307643297.773587</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1689345593311559</v>
+        <v>0.1358798889186404</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04673154699066076</v>
+        <v>0.04451043185462557</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2928880461.010842</v>
+        <v>4005974009.802962</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1440018348683608</v>
+        <v>0.1467774869183911</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02744069474385059</v>
+        <v>0.02376303653060925</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1336186375.134121</v>
+        <v>1355653575.453861</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1197801528392817</v>
+        <v>0.07932862475106975</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01924253164176523</v>
+        <v>0.02787771612349592</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1420113763.914435</v>
+        <v>1089146450.458127</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09953486732951997</v>
+        <v>0.1178414820251313</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02710197837916543</v>
+        <v>0.03127358109159864</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3757777645.904764</v>
+        <v>4303720032.150354</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1244018427596784</v>
+        <v>0.1320919317845074</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02674607334275806</v>
+        <v>0.02186675868581962</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2806150797.231452</v>
+        <v>2884222987.531824</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1445225602293143</v>
+        <v>0.1495111983458449</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03197971634010769</v>
+        <v>0.03242727449145624</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5427389484.473505</v>
+        <v>4132576181.042496</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1077357925184274</v>
+        <v>0.1285066216216475</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04168602929482175</v>
+        <v>0.03605390471407474</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1574038577.457534</v>
+        <v>1534703558.96605</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1387667315231473</v>
+        <v>0.1115642722783502</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03174958965832512</v>
+        <v>0.03414877917547657</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1501742579.114317</v>
+        <v>927387381.6352772</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08040767335339929</v>
+        <v>0.1103915165592794</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03468086844485783</v>
+        <v>0.03966370164441679</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1860936755.852994</v>
+        <v>1590860598.156881</v>
       </c>
       <c r="F32" t="n">
-        <v>0.113294821434894</v>
+        <v>0.09512669025396783</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03412357366456475</v>
+        <v>0.02779222660641131</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1890111858.801287</v>
+        <v>2703990881.800683</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1391811096892003</v>
+        <v>0.1939427963102304</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05013701850429053</v>
+        <v>0.05926552580718843</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1440581889.813425</v>
+        <v>1174302449.246711</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08432081692084724</v>
+        <v>0.1020569584263921</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02666935162554802</v>
+        <v>0.02659338184603584</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1301516854.45649</v>
+        <v>1184298029.969688</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07453780252147621</v>
+        <v>0.07221959357964206</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02828423003656874</v>
+        <v>0.04169656235764346</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3144581384.653728</v>
+        <v>2017407824.853963</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1600728110779428</v>
+        <v>0.1577633502160043</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02545549128647531</v>
+        <v>0.01915766046504232</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1789231926.497097</v>
+        <v>1894840450.461551</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08342887781162092</v>
+        <v>0.08956077407326719</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02815170523642148</v>
+        <v>0.03845379160589739</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1700242221.435076</v>
+        <v>1778628514.460048</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1105492398248887</v>
+        <v>0.09234749463368398</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03562033239361166</v>
+        <v>0.03852206202810191</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1832909067.980139</v>
+        <v>1344466942.276373</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1898243485672124</v>
+        <v>0.1443526168496531</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02117343986694877</v>
+        <v>0.02987870039074707</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1694222401.12609</v>
+        <v>1260498738.367086</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1353252471129076</v>
+        <v>0.1294824157119821</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04935614996206974</v>
+        <v>0.05895625069259083</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1861226324.815623</v>
+        <v>2578690097.539684</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1440602529147315</v>
+        <v>0.1176774482071084</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04739243483848484</v>
+        <v>0.03115052973738225</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3250229016.038127</v>
+        <v>4221761671.613997</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0905362840933731</v>
+        <v>0.09541181587999291</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03554318105980096</v>
+        <v>0.02839640442500341</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2078905913.944722</v>
+        <v>2609304050.518426</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1408799560654004</v>
+        <v>0.194833541477114</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01753003345570599</v>
+        <v>0.01964469860380855</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1702109231.039742</v>
+        <v>2158261084.928634</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0753309537185765</v>
+        <v>0.06730100706025445</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02560006622610826</v>
+        <v>0.02784395102118614</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1659680361.365069</v>
+        <v>1831205162.027701</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1755607543011674</v>
+        <v>0.1860822997956551</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05069295836581433</v>
+        <v>0.04739615241501324</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4499576592.701843</v>
+        <v>4031385932.305917</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1145139639431439</v>
+        <v>0.112931230892646</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04262841791287685</v>
+        <v>0.05319194297528372</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4420851315.71442</v>
+        <v>4253255525.805705</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1960917932576503</v>
+        <v>0.1793739534206592</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05155407975652823</v>
+        <v>0.03890636079731444</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3074256772.513611</v>
+        <v>3824768576.691906</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07208362526376662</v>
+        <v>0.08763555456824604</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03034829289795085</v>
+        <v>0.02552485462314391</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1492887394.636549</v>
+        <v>1428046772.737162</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1691714210528822</v>
+        <v>0.1940452918203437</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03393422122062519</v>
+        <v>0.03587425746561412</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3163293783.483557</v>
+        <v>3342292874.216092</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1180376446931977</v>
+        <v>0.1127746352824138</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05098792132716283</v>
+        <v>0.04172691431800311</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1255468042.43385</v>
+        <v>1257195503.984303</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1946819117380028</v>
+        <v>0.1923944406192339</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03957846177504074</v>
+        <v>0.04433747710358019</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4542011871.863333</v>
+        <v>3514703258.768104</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08949744941948219</v>
+        <v>0.1221311821780256</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05373540469056278</v>
+        <v>0.05809807153824592</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3134369858.015899</v>
+        <v>3089671790.712776</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1849787392064008</v>
+        <v>0.1907081092919143</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03126800019248632</v>
+        <v>0.02231842507557382</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3668311683.042052</v>
+        <v>3962662054.541838</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1023038897250863</v>
+        <v>0.1347753498860274</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03888110724490414</v>
+        <v>0.03533817752964154</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3870665207.693233</v>
+        <v>3918524851.182978</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2203984106704922</v>
+        <v>0.1435835902741371</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02413038945704301</v>
+        <v>0.02411115544636085</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1415374625.763304</v>
+        <v>1431121166.241727</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1349644435344616</v>
+        <v>0.1487179041963338</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04078902056940108</v>
+        <v>0.05416661968884319</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3841683024.829212</v>
+        <v>2801314625.392214</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1785411538584218</v>
+        <v>0.1460437856070325</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02100246475073137</v>
+        <v>0.02249521844862795</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1730927773.742783</v>
+        <v>1152854459.562804</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1786470724282521</v>
+        <v>0.2022126339295074</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02425917018861507</v>
+        <v>0.02609695887131997</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4210260890.72</v>
+        <v>4481380905.340697</v>
       </c>
       <c r="F59" t="n">
-        <v>0.118605553215042</v>
+        <v>0.1089706910275454</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04310630671173741</v>
+        <v>0.03283611050692091</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3592054407.618208</v>
+        <v>3441982119.476512</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1840439134568087</v>
+        <v>0.1428867869397919</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0267919051680958</v>
+        <v>0.03338356368702568</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2598734917.008854</v>
+        <v>3242250668.117992</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1620922269709385</v>
+        <v>0.1220090637621421</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02306023064219941</v>
+        <v>0.03013526987765643</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1965026273.383818</v>
+        <v>1466472914.352826</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1600042014366469</v>
+        <v>0.1297764263546586</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03804891124796383</v>
+        <v>0.03891307593163283</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4778409600.744594</v>
+        <v>4841031071.235961</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1028245116407466</v>
+        <v>0.07799487408446097</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04299929648421257</v>
+        <v>0.03105557195586247</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5111166329.527685</v>
+        <v>5388060277.180803</v>
       </c>
       <c r="F64" t="n">
-        <v>0.154767916766662</v>
+        <v>0.165434394610596</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02430563973436442</v>
+        <v>0.02432586689653137</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4190415109.404154</v>
+        <v>4043997558.546731</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1512667277238258</v>
+        <v>0.1455667767291383</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03098371477520948</v>
+        <v>0.02924874783179844</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4189032317.838826</v>
+        <v>4276847804.42574</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1118949723040409</v>
+        <v>0.1132371911977873</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03612341877612363</v>
+        <v>0.03477032359476226</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2954816109.807107</v>
+        <v>2556685388.155414</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07115670864054904</v>
+        <v>0.09294486917659749</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04186670121766324</v>
+        <v>0.04125047414843613</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4156730724.868896</v>
+        <v>4514248963.962333</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09696969115495387</v>
+        <v>0.1335437546815696</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04243624550723078</v>
+        <v>0.03122283824951299</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2352615770.323145</v>
+        <v>1549786991.927948</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1586333685893923</v>
+        <v>0.1446489547335628</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05629011913265586</v>
+        <v>0.05760996846877234</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2894473780.197501</v>
+        <v>2580504619.576804</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07954831090369074</v>
+        <v>0.06972453105718288</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03464045519158872</v>
+        <v>0.04601251966359401</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5546608689.315365</v>
+        <v>4193843492.09675</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1743490044578424</v>
+        <v>0.1257829958029818</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03207836239709486</v>
+        <v>0.03065244750895781</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2097945153.690689</v>
+        <v>1937245858.605168</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09123447082690618</v>
+        <v>0.0708360787579642</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03432435301041011</v>
+        <v>0.03372316652078364</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2292939900.154291</v>
+        <v>3242684522.413439</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1048586560807388</v>
+        <v>0.0851094158568516</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03674728132235106</v>
+        <v>0.04028049223695396</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3991769191.393549</v>
+        <v>3285563255.344202</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1595576480546449</v>
+        <v>0.1317910115053221</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03418310555776868</v>
+        <v>0.03313297475726644</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2318951317.554916</v>
+        <v>1516772813.604561</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1266378662852626</v>
+        <v>0.10781771169282</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0305571034482692</v>
+        <v>0.03101905918068942</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5041821927.673171</v>
+        <v>4511104239.784219</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09719156489070636</v>
+        <v>0.09702963448414412</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02948419969437751</v>
+        <v>0.03150449133768295</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1543107462.550215</v>
+        <v>1476487783.582805</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1298747314052331</v>
+        <v>0.1820309404461499</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02131268527066962</v>
+        <v>0.02799757356946468</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2924840830.536871</v>
+        <v>3770826305.687595</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09391892375821589</v>
+        <v>0.09708510632280189</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05127854949033921</v>
+        <v>0.03460825554362028</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1862884669.832483</v>
+        <v>1526716999.270994</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1605682773359444</v>
+        <v>0.172871037522504</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02960046359489648</v>
+        <v>0.03465153350325147</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4416079013.026921</v>
+        <v>3801519422.205569</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1104893887814882</v>
+        <v>0.08804289663138148</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02660662092489115</v>
+        <v>0.02934415484385786</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4794716006.788422</v>
+        <v>5074889348.349652</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08518781788353533</v>
+        <v>0.1162630264278273</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02232371885526394</v>
+        <v>0.02283176405920339</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5214224576.033558</v>
+        <v>4520094048.118014</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2151787118614964</v>
+        <v>0.1789058208305095</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0227428909338446</v>
+        <v>0.02015101531387595</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1883933203.660535</v>
+        <v>2473153400.961291</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1449598575660023</v>
+        <v>0.1079637398730268</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04252037488781435</v>
+        <v>0.03895406571966033</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2158645077.812881</v>
+        <v>2362315389.509144</v>
       </c>
       <c r="F84" t="n">
-        <v>0.102434882208398</v>
+        <v>0.0728601165632147</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03346490190628396</v>
+        <v>0.03796356219260326</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3115846476.072856</v>
+        <v>3648411269.243557</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1433505645443822</v>
+        <v>0.1118344088186896</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05535658515984673</v>
+        <v>0.03568484192037399</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2369478984.467098</v>
+        <v>2072533449.868052</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1624705311021704</v>
+        <v>0.1143404155960888</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01832767077900082</v>
+        <v>0.02235158762907144</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1230236214.54769</v>
+        <v>1143019495.565894</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1413345208203681</v>
+        <v>0.1190857119704406</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04004824456877677</v>
+        <v>0.04235577163333096</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3475862555.250045</v>
+        <v>3302865999.977477</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1084121071006073</v>
+        <v>0.1416835673386783</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03286764675696558</v>
+        <v>0.03158527658893035</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2249722308.113627</v>
+        <v>3287457730.076998</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1507767974715797</v>
+        <v>0.1450361131161974</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02884825344609968</v>
+        <v>0.03897729254392267</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1750484402.951323</v>
+        <v>1407737883.871462</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1054709651592791</v>
+        <v>0.1055874264630039</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0431067544317871</v>
+        <v>0.05026466553676377</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1772010379.921531</v>
+        <v>2058180954.866445</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1616418377695026</v>
+        <v>0.1309964429282024</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03746405444507352</v>
+        <v>0.04417509126315151</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2049076694.126381</v>
+        <v>2359282578.596031</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09073891104988216</v>
+        <v>0.07666233146869603</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03923210968926783</v>
+        <v>0.03148166877517918</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4896806246.253721</v>
+        <v>4467145611.97603</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1303065435439265</v>
+        <v>0.106945759759539</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05332720525731894</v>
+        <v>0.03556649189310446</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1659150616.56163</v>
+        <v>1888534000.214236</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1280570669220537</v>
+        <v>0.118820017657057</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0366460810503406</v>
+        <v>0.03198174811058277</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2453588964.693099</v>
+        <v>2288620621.810263</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1231152580701158</v>
+        <v>0.09417534733778811</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03923848915881271</v>
+        <v>0.03999769721468635</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1523910649.983081</v>
+        <v>1460119523.038604</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08778185401140377</v>
+        <v>0.1236003350942599</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03006470948255644</v>
+        <v>0.03585915418269323</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4998197655.048677</v>
+        <v>4102845303.046688</v>
       </c>
       <c r="F97" t="n">
-        <v>0.129592548220348</v>
+        <v>0.125920431762658</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02437602798135212</v>
+        <v>0.02285826388495982</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3684122538.391025</v>
+        <v>3953367045.102527</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09681016226699993</v>
+        <v>0.1057151993680085</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03152570309829716</v>
+        <v>0.0321529705940064</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3089986044.075076</v>
+        <v>2540316162.360118</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1053326631140829</v>
+        <v>0.143644734485289</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0236336451922507</v>
+        <v>0.03399227891281004</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4711022815.863025</v>
+        <v>3767304391.397712</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1088380214331378</v>
+        <v>0.1588166372706541</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01867883994141627</v>
+        <v>0.0232930887637283</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3229973486.828003</v>
+        <v>3330558951.975172</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1561233650952276</v>
+        <v>0.1506813572235426</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05194160241606931</v>
+        <v>0.0573506953459887</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_406.xlsx
+++ b/output/fit_clients/fit_round_406.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2508937823.09853</v>
+        <v>2255788243.617272</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09758959246000196</v>
+        <v>0.1145679888191112</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04524507126089509</v>
+        <v>0.02979352610282191</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2532221864.713642</v>
+        <v>2196033208.125925</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1598858226637536</v>
+        <v>0.1678748546696907</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03479204305799259</v>
+        <v>0.0424154035287312</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4186973179.29122</v>
+        <v>4435561001.269423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1605856119998181</v>
+        <v>0.1660874453209625</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02447770421819602</v>
+        <v>0.02854002630702517</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>206</v>
+      </c>
+      <c r="J4" t="n">
+        <v>406</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4112225479.015882</v>
+        <v>2844714725.135069</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0964058592669879</v>
+        <v>0.08566735601635068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03252313241615195</v>
+        <v>0.05006467261852537</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>165</v>
+      </c>
+      <c r="J5" t="n">
+        <v>405</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.81071556050306</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2416801873.679411</v>
+        <v>2368048113.180323</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1016540373849779</v>
+        <v>0.08970211423936501</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05595989990487594</v>
+        <v>0.0469647064934014</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2324038645.558528</v>
+        <v>2235569903.311572</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09775036494265733</v>
+        <v>0.0657007051151518</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03443241586430515</v>
+        <v>0.0390900383944183</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2534994883.983633</v>
+        <v>3287287078.482542</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1490393216186517</v>
+        <v>0.1795242569362892</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0281823621350031</v>
+        <v>0.02292718495283104</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>111</v>
+      </c>
+      <c r="J8" t="n">
+        <v>405</v>
+      </c>
+      <c r="K8" t="n">
+        <v>44.03489605410242</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1637663096.260087</v>
+        <v>1468195186.243729</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1637381567117875</v>
+        <v>0.121528814718686</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02516938955291863</v>
+        <v>0.03107901447695734</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5447966264.799534</v>
+        <v>4549794084.924993</v>
       </c>
       <c r="F10" t="n">
-        <v>0.184388693232471</v>
+        <v>0.1302929123424818</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0372998821270613</v>
+        <v>0.03363083379674549</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>327</v>
+      </c>
+      <c r="J10" t="n">
+        <v>406</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3184564757.900479</v>
+        <v>2588451194.386166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.176113613664042</v>
+        <v>0.1446871897148632</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03408504757322898</v>
+        <v>0.03974770807240773</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>169</v>
+      </c>
+      <c r="J11" t="n">
+        <v>400</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3107622662.659886</v>
+        <v>2280759096.095766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1492711408939077</v>
+        <v>0.14839909238464</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04805239355214132</v>
+        <v>0.03326223674037696</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5015895057.761235</v>
+        <v>3912365446.614026</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0861309739633348</v>
+        <v>0.06623241954602124</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02869610354477573</v>
+        <v>0.02894138765215814</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>212</v>
+      </c>
+      <c r="J13" t="n">
+        <v>405</v>
+      </c>
+      <c r="K13" t="n">
+        <v>45.99107731840622</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3232898924.795606</v>
+        <v>3105571922.402148</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1808520480606547</v>
+        <v>0.1382876048060669</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02699742521850308</v>
+        <v>0.03225677875276004</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1154633591.540027</v>
+        <v>1339672050.401332</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07263651702000729</v>
+        <v>0.108330479596473</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03540806336249366</v>
+        <v>0.03715531560077319</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1946634663.183473</v>
+        <v>2018045334.317327</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1009266829126867</v>
+        <v>0.09660523172394359</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04635554315908737</v>
+        <v>0.051877396620121</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3678548637.853159</v>
+        <v>3792754038.780786</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1689679770352295</v>
+        <v>0.1188653388089592</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04399391111293727</v>
+        <v>0.04556244900684546</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>196</v>
+      </c>
+      <c r="J17" t="n">
+        <v>405</v>
+      </c>
+      <c r="K17" t="n">
+        <v>43.52298090959243</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3138960409.319034</v>
+        <v>3796972915.524382</v>
       </c>
       <c r="F18" t="n">
-        <v>0.184558491144606</v>
+        <v>0.1401198540662842</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02448428171672814</v>
+        <v>0.02311048313636858</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>102</v>
+      </c>
+      <c r="J18" t="n">
+        <v>406</v>
+      </c>
+      <c r="K18" t="n">
+        <v>60.19862591470706</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1055881439.724739</v>
+        <v>946327965.320825</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1678175304433902</v>
+        <v>0.1883260622108099</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0203041145488727</v>
+        <v>0.01779351013080912</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1970861227.694463</v>
+        <v>2080280651.735943</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1064645524340437</v>
+        <v>0.09755380762216835</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02154947838589944</v>
+        <v>0.02533549553409416</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2233978406.677113</v>
+        <v>2458458545.462131</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08520935203407473</v>
+        <v>0.06654092903957465</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03072604688632723</v>
+        <v>0.02852901372539021</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3513494752.335397</v>
+        <v>3251579799.276374</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09636888749701297</v>
+        <v>0.1145881010039573</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05691992903654915</v>
+        <v>0.0351425248270552</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>113</v>
+      </c>
+      <c r="J22" t="n">
+        <v>405</v>
+      </c>
+      <c r="K22" t="n">
+        <v>41.98877441156993</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1307643297.773587</v>
+        <v>1358977867.859421</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1358798889186404</v>
+        <v>0.1482646838918655</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04451043185462557</v>
+        <v>0.04453409843567142</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1283,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4005974009.802962</v>
+        <v>4102280773.927666</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1467774869183911</v>
+        <v>0.139985761995566</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02376303653060925</v>
+        <v>0.03529848640667545</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>127</v>
+      </c>
+      <c r="J24" t="n">
+        <v>406</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1355653575.453861</v>
+        <v>965295267.1584206</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07932862475106975</v>
+        <v>0.09108235032371904</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02787771612349592</v>
+        <v>0.02143067452335868</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1089146450.458127</v>
+        <v>1017153103.145853</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1178414820251313</v>
+        <v>0.1020378395016947</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03127358109159864</v>
+        <v>0.02717418541038215</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1388,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4303720032.150354</v>
+        <v>3667760365.299499</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1320919317845074</v>
+        <v>0.1339923803571996</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02186675868581962</v>
+        <v>0.02088064508642895</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>171</v>
+      </c>
+      <c r="J27" t="n">
+        <v>405</v>
+      </c>
+      <c r="K27" t="n">
+        <v>43.45241690588389</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2884222987.531824</v>
+        <v>3452369876.179654</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1495111983458449</v>
+        <v>0.1288560180460611</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03242727449145624</v>
+        <v>0.03152575205567586</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>98</v>
+      </c>
+      <c r="J28" t="n">
+        <v>402</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4132576181.042496</v>
+        <v>4283444912.358449</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1285066216216475</v>
+        <v>0.1265643840120309</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03605390471407474</v>
+        <v>0.04013071632474219</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>343</v>
+      </c>
+      <c r="J29" t="n">
+        <v>405</v>
+      </c>
+      <c r="K29" t="n">
+        <v>42.24324203036198</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1534703558.96605</v>
+        <v>2182155035.886193</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1115642722783502</v>
+        <v>0.08605956079873521</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03414877917547657</v>
+        <v>0.03279937054682365</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>927387381.6352772</v>
+        <v>1422347434.662158</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1103915165592794</v>
+        <v>0.100999461307264</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03966370164441679</v>
+        <v>0.03512334678645219</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1590860598.156881</v>
+        <v>1459711517.391094</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09512669025396783</v>
+        <v>0.08941774414993474</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02779222660641131</v>
+        <v>0.03649229556522619</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2703990881.800683</v>
+        <v>2925290725.23118</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1939427963102304</v>
+        <v>0.1993843102986498</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05926552580718843</v>
+        <v>0.04829613911053193</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1174302449.246711</v>
+        <v>1279800463.144457</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1020569584263921</v>
+        <v>0.1190741943637322</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02659338184603584</v>
+        <v>0.01929686501658809</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1184298029.969688</v>
+        <v>952288828.0353335</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07221959357964206</v>
+        <v>0.1020531709641414</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04169656235764346</v>
+        <v>0.04488621104371128</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2017407824.853963</v>
+        <v>2250797564.558489</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1577633502160043</v>
+        <v>0.1602650472058919</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01915766046504232</v>
+        <v>0.02308031852453681</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1894840450.461551</v>
+        <v>2078833736.973482</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08956077407326719</v>
+        <v>0.0705751243402572</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03845379160589739</v>
+        <v>0.03781022918765135</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1778628514.460048</v>
+        <v>1521798498.80535</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09234749463368398</v>
+        <v>0.08746067904950551</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03852206202810191</v>
+        <v>0.02979224725820803</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1344466942.276373</v>
+        <v>1551239318.545322</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1443526168496531</v>
+        <v>0.1924075391468404</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02987870039074707</v>
+        <v>0.02892235687835779</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1260498738.367086</v>
+        <v>1707435420.263529</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1294824157119821</v>
+        <v>0.1396143792457705</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05895625069259083</v>
+        <v>0.052718900030475</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2578690097.539684</v>
+        <v>2526977287.815982</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1176774482071084</v>
+        <v>0.1136100234466665</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03115052973738225</v>
+        <v>0.03219431620266605</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1917,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4221761671.613997</v>
+        <v>3733584122.172265</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09541181587999291</v>
+        <v>0.122561800306174</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02839640442500341</v>
+        <v>0.04476615897435598</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>174</v>
+      </c>
+      <c r="J42" t="n">
+        <v>406</v>
+      </c>
+      <c r="K42" t="n">
+        <v>51.96601723570357</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1954,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2609304050.518426</v>
+        <v>2700838181.289114</v>
       </c>
       <c r="F43" t="n">
-        <v>0.194833541477114</v>
+        <v>0.1379474552182551</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01964469860380855</v>
+        <v>0.0232652925539461</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1989,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2158261084.928634</v>
+        <v>2078293761.817217</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06730100706025445</v>
+        <v>0.08843640497145958</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02784395102118614</v>
+        <v>0.02935150728503931</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1831205162.027701</v>
+        <v>1874290025.65232</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1860822997956551</v>
+        <v>0.1678444571028891</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04739615241501324</v>
+        <v>0.04514916379330417</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2053,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4031385932.305917</v>
+        <v>4245032689.403256</v>
       </c>
       <c r="F46" t="n">
-        <v>0.112931230892646</v>
+        <v>0.1298054110039541</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05319194297528372</v>
+        <v>0.05125990177213693</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>244</v>
+      </c>
+      <c r="J46" t="n">
+        <v>405</v>
+      </c>
+      <c r="K46" t="n">
+        <v>44.92611000342681</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2090,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4253255525.805705</v>
+        <v>3535491052.811012</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1793739534206592</v>
+        <v>0.1335590953686629</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03890636079731444</v>
+        <v>0.04847754323968092</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>182</v>
+      </c>
+      <c r="J47" t="n">
+        <v>406</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2131,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3824768576.691906</v>
+        <v>4359963893.581582</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08763555456824604</v>
+        <v>0.08360467203124929</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02552485462314391</v>
+        <v>0.02752365137400764</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>209</v>
+      </c>
+      <c r="J48" t="n">
+        <v>406</v>
+      </c>
+      <c r="K48" t="n">
+        <v>46.82251602248982</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1428046772.737162</v>
+        <v>1478259100.444363</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1940452918203437</v>
+        <v>0.1794069467321034</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03587425746561412</v>
+        <v>0.03780423929978356</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2197,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3342292874.216092</v>
+        <v>3101827946.734495</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1127746352824138</v>
+        <v>0.1692743954627614</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04172691431800311</v>
+        <v>0.0450227560868108</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>140</v>
+      </c>
+      <c r="J50" t="n">
+        <v>405</v>
+      </c>
+      <c r="K50" t="n">
+        <v>33.27311864506714</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2234,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1257195503.984303</v>
+        <v>1432226424.748419</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1923944406192339</v>
+        <v>0.1760781747255211</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04433747710358019</v>
+        <v>0.05354297673126691</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2269,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3514703258.768104</v>
+        <v>3495775436.330992</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1221311821780256</v>
+        <v>0.1036897182803875</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05809807153824592</v>
+        <v>0.05889916802144664</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>235</v>
+      </c>
+      <c r="J52" t="n">
+        <v>406</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2310,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3089671790.712776</v>
+        <v>2496263881.642127</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1907081092919143</v>
+        <v>0.1562293351368243</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02231842507557382</v>
+        <v>0.0240191063950553</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>55</v>
+      </c>
+      <c r="J53" t="n">
+        <v>401</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2339,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3962662054.541838</v>
+        <v>3478900871.862772</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1347753498860274</v>
+        <v>0.1094684310375043</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03533817752964154</v>
+        <v>0.04791345250606276</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>217</v>
+      </c>
+      <c r="J54" t="n">
+        <v>405</v>
+      </c>
+      <c r="K54" t="n">
+        <v>36.0700388089265</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2382,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3918524851.182978</v>
+        <v>4024210588.091967</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1435835902741371</v>
+        <v>0.1971666181581884</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02411115544636085</v>
+        <v>0.0284488319022147</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>198</v>
+      </c>
+      <c r="J55" t="n">
+        <v>406</v>
+      </c>
+      <c r="K55" t="n">
+        <v>47.09321316807567</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2419,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1431121166.241727</v>
+        <v>1828009493.968265</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1487179041963338</v>
+        <v>0.1191074930554523</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05416661968884319</v>
+        <v>0.0479387226073666</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2454,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2801314625.392214</v>
+        <v>4484957361.686045</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1460437856070325</v>
+        <v>0.1504275847737972</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02249521844862795</v>
+        <v>0.02651168861327609</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>174</v>
+      </c>
+      <c r="J57" t="n">
+        <v>406</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2489,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1152854459.562804</v>
+        <v>1667592602.502389</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2022126339295074</v>
+        <v>0.1524381721432461</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02609695887131997</v>
+        <v>0.0242871844563484</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2518,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4481380905.340697</v>
+        <v>4126429707.895922</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1089706910275454</v>
+        <v>0.08250853462218019</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03283611050692091</v>
+        <v>0.03348905186446948</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>199</v>
+      </c>
+      <c r="J59" t="n">
+        <v>405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>44.6921706774109</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2561,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3441982119.476512</v>
+        <v>3032044826.095497</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1428867869397919</v>
+        <v>0.1966272508787449</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03338356368702568</v>
+        <v>0.02333699951252629</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>75</v>
+      </c>
+      <c r="J60" t="n">
+        <v>403</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2596,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3242250668.117992</v>
+        <v>3285243981.69813</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1220090637621421</v>
+        <v>0.1096174958281227</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03013526987765643</v>
+        <v>0.02257457944249328</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2625,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1466472914.352826</v>
+        <v>1410963512.018616</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1297764263546586</v>
+        <v>0.1552117041190582</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03891307593163283</v>
+        <v>0.03660970441233475</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2666,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4841031071.235961</v>
+        <v>3487835034.560179</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07799487408446097</v>
+        <v>0.06982369075713986</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03105557195586247</v>
+        <v>0.04768079373211676</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>202</v>
+      </c>
+      <c r="J63" t="n">
+        <v>406</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2695,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5388060277.180803</v>
+        <v>5400934509.328913</v>
       </c>
       <c r="F64" t="n">
-        <v>0.165434394610596</v>
+        <v>0.1873562042689894</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02432586689653137</v>
+        <v>0.03328423487503837</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>203</v>
+      </c>
+      <c r="J64" t="n">
+        <v>405</v>
+      </c>
+      <c r="K64" t="n">
+        <v>45.77572723376873</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2732,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4043997558.546731</v>
+        <v>5122170609.06376</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1455667767291383</v>
+        <v>0.1716316898699006</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02924874783179844</v>
+        <v>0.01952705570996083</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>299</v>
+      </c>
+      <c r="J65" t="n">
+        <v>406</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2767,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4276847804.42574</v>
+        <v>3981832031.850367</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1132371911977873</v>
+        <v>0.1391507456111885</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03477032359476226</v>
+        <v>0.0350754412316891</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>201</v>
+      </c>
+      <c r="J66" t="n">
+        <v>405</v>
+      </c>
+      <c r="K66" t="n">
+        <v>44.78971630713412</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2810,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2556685388.155414</v>
+        <v>2744521008.724073</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09294486917659749</v>
+        <v>0.0630401713505391</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04125047414843613</v>
+        <v>0.04112959195576631</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2839,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4514248963.962333</v>
+        <v>4152301399.354686</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1335437546815696</v>
+        <v>0.1287075042322271</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03122283824951299</v>
+        <v>0.033294895087816</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>221</v>
+      </c>
+      <c r="J68" t="n">
+        <v>406</v>
+      </c>
+      <c r="K68" t="n">
+        <v>46.54172291242345</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2876,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1549786991.927948</v>
+        <v>2140478988.421059</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1446489547335628</v>
+        <v>0.1829413279095415</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05760996846877234</v>
+        <v>0.04820896685985276</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2911,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2580504619.576804</v>
+        <v>3374431822.805111</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06972453105718288</v>
+        <v>0.0829332063818571</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04601251966359401</v>
+        <v>0.03923093868824411</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2952,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4193843492.09675</v>
+        <v>4954245283.913978</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1257829958029818</v>
+        <v>0.1131985368532489</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03065244750895781</v>
+        <v>0.02858630521463803</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>287</v>
+      </c>
+      <c r="J71" t="n">
+        <v>405</v>
+      </c>
+      <c r="K71" t="n">
+        <v>44.33851804881051</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2983,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1937245858.605168</v>
+        <v>1739392845.282753</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0708360787579642</v>
+        <v>0.0935544622980511</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03372316652078364</v>
+        <v>0.03350297789243353</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3018,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3242684522.413439</v>
+        <v>2794068573.34459</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0851094158568516</v>
+        <v>0.1108495900543997</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04028049223695396</v>
+        <v>0.04405208927199884</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3059,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3285563255.344202</v>
+        <v>3469997391.738114</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1317910115053221</v>
+        <v>0.1742662879392287</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03313297475726644</v>
+        <v>0.0350850477659093</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>114</v>
+      </c>
+      <c r="J74" t="n">
+        <v>404</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3094,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1516772813.604561</v>
+        <v>1567233592.892079</v>
       </c>
       <c r="F75" t="n">
-        <v>0.10781771169282</v>
+        <v>0.1523713452663525</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03101905918068942</v>
+        <v>0.02584080232826588</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3123,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4511104239.784219</v>
+        <v>5286275124.891398</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09702963448414412</v>
+        <v>0.08969226932584633</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03150449133768295</v>
+        <v>0.02276553361706241</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>192</v>
+      </c>
+      <c r="J76" t="n">
+        <v>406</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3158,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1476487783.582805</v>
+        <v>1975504929.641297</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1820309404461499</v>
+        <v>0.1397882044233332</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02799757356946468</v>
+        <v>0.02853705850917693</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3193,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3770826305.687595</v>
+        <v>4108673965.208497</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09708510632280189</v>
+        <v>0.09864228131912828</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03460825554362028</v>
+        <v>0.04197351288203421</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>202</v>
+      </c>
+      <c r="J78" t="n">
+        <v>406</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1526716999.270994</v>
+        <v>1734557417.055338</v>
       </c>
       <c r="F79" t="n">
-        <v>0.172871037522504</v>
+        <v>0.1717980877804791</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03465153350325147</v>
+        <v>0.02479817825606721</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3269,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3801519422.205569</v>
+        <v>3898863518.859823</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08804289663138148</v>
+        <v>0.1094521997358052</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02934415484385786</v>
+        <v>0.02868485137773803</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>198</v>
+      </c>
+      <c r="J80" t="n">
+        <v>406</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3304,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5074889348.349652</v>
+        <v>4792753554.742719</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1162630264278273</v>
+        <v>0.09977224255107765</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02283176405920339</v>
+        <v>0.0294300369157599</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>189</v>
+      </c>
+      <c r="J81" t="n">
+        <v>405</v>
+      </c>
+      <c r="K81" t="n">
+        <v>43.25381674681687</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3335,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4520094048.118014</v>
+        <v>4054518180.162249</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1789058208305095</v>
+        <v>0.1456315311074212</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02015101531387595</v>
+        <v>0.02211609438096217</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>277</v>
+      </c>
+      <c r="J82" t="n">
+        <v>406</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3376,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2473153400.961291</v>
+        <v>2070026573.526878</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1079637398730268</v>
+        <v>0.1511252333729432</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03895406571966033</v>
+        <v>0.04329672022937453</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3411,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2362315389.509144</v>
+        <v>2367445547.725852</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0728601165632147</v>
+        <v>0.1028563595237235</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03796356219260326</v>
+        <v>0.05168940770662694</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3446,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3648411269.243557</v>
+        <v>2288732558.240316</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1118344088186896</v>
+        <v>0.1801063231380813</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03568484192037399</v>
+        <v>0.03747845002972826</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2072533449.868052</v>
+        <v>2762329826.520751</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1143404155960888</v>
+        <v>0.1187255737004626</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02235158762907144</v>
+        <v>0.02180501174350868</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1143019495.565894</v>
+        <v>1226587256.954745</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1190857119704406</v>
+        <v>0.1361795252137145</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04235577163333096</v>
+        <v>0.03325610043274572</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3302865999.977477</v>
+        <v>3418195837.295481</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1416835673386783</v>
+        <v>0.1443620372650329</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03158527658893035</v>
+        <v>0.02901078359073583</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3287457730.076998</v>
+        <v>2580438381.717337</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1450361131161974</v>
+        <v>0.1025821752243664</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03897729254392267</v>
+        <v>0.02876427517349137</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1407737883.871462</v>
+        <v>1794693715.671696</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1055874264630039</v>
+        <v>0.1028179643523386</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05026466553676377</v>
+        <v>0.05243512815540855</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2058180954.866445</v>
+        <v>2018289482.357118</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1309964429282024</v>
+        <v>0.1401894952720787</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04417509126315151</v>
+        <v>0.05967881468463589</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2359282578.596031</v>
+        <v>1850686063.596093</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07666233146869603</v>
+        <v>0.08296070580063634</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03148166877517918</v>
+        <v>0.03602954601033896</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4467145611.97603</v>
+        <v>3517806305.363482</v>
       </c>
       <c r="F93" t="n">
-        <v>0.106945759759539</v>
+        <v>0.1269836908989615</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03556649189310446</v>
+        <v>0.04788777411602516</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>194</v>
+      </c>
+      <c r="J93" t="n">
+        <v>406</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1888534000.214236</v>
+        <v>2296685398.395572</v>
       </c>
       <c r="F94" t="n">
-        <v>0.118820017657057</v>
+        <v>0.1438767009545212</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03198174811058277</v>
+        <v>0.02814676275350757</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2288620621.810263</v>
+        <v>2437952871.252099</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09417534733778811</v>
+        <v>0.09537585621036185</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03999769721468635</v>
+        <v>0.0512744662976161</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1460119523.038604</v>
+        <v>2352026343.462108</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1236003350942599</v>
+        <v>0.1088615985962924</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03585915418269323</v>
+        <v>0.03123250277722091</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4102845303.046688</v>
+        <v>4040542867.093905</v>
       </c>
       <c r="F97" t="n">
-        <v>0.125920431762658</v>
+        <v>0.1701618674220897</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02285826388495982</v>
+        <v>0.02590315394070147</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>211</v>
+      </c>
+      <c r="J97" t="n">
+        <v>406</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3953367045.102527</v>
+        <v>3051401510.913554</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1057151993680085</v>
+        <v>0.08365235853297248</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0321529705940064</v>
+        <v>0.02843285931300084</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>106</v>
+      </c>
+      <c r="J98" t="n">
+        <v>404</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2540316162.360118</v>
+        <v>2135285486.751908</v>
       </c>
       <c r="F99" t="n">
-        <v>0.143644734485289</v>
+        <v>0.1229360601064714</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03399227891281004</v>
+        <v>0.0329669677294627</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3767304391.397712</v>
+        <v>4794294152.691241</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1588166372706541</v>
+        <v>0.1178194034272411</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0232930887637283</v>
+        <v>0.02787211109956095</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>188</v>
+      </c>
+      <c r="J100" t="n">
+        <v>406</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3330558951.975172</v>
+        <v>2942469098.876745</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1506813572235426</v>
+        <v>0.1880052146070078</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0573506953459887</v>
+        <v>0.04879541572833569</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
